--- a/16B-Red-BOM-2016-07-12.xlsx
+++ b/16B-Red-BOM-2016-07-12.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bbothwell/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bbothwell/Box Sync/UX Packages/UX Package BOMs/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-33600" yWindow="460" windowWidth="28800" windowHeight="17460"/>
+    <workbookView xWindow="-33600" yWindow="460" windowWidth="33600" windowHeight="20460"/>
   </bookViews>
   <sheets>
     <sheet name="UX Package Info" sheetId="5" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="379">
   <si>
     <t>Operating Systems</t>
   </si>
@@ -158,18 +158,6 @@
     <t>OCe14102-U2-X</t>
   </si>
   <si>
-    <t>Entry: 10DFE72A
-Type 1: 13</t>
-  </si>
-  <si>
-    <t>Entry: 10DFE816
-Type 1: 13</t>
-  </si>
-  <si>
-    <t>Entry: 10DFE818
-Type 1: 13</t>
-  </si>
-  <si>
     <t xml:space="preserve">Gold Lite </t>
   </si>
   <si>
@@ -476,25 +464,13 @@
     <t>OCm14102-U-X</t>
   </si>
   <si>
-    <t>Entry: 10DFE810
-Type 1: 13</t>
-  </si>
-  <si>
     <t>Code Name</t>
   </si>
   <si>
     <t>LPe16000-M6-X</t>
   </si>
   <si>
-    <t>Entry: 10DFE203
-Type 1: 13</t>
-  </si>
-  <si>
     <t>LPe16002-M6-X</t>
-  </si>
-  <si>
-    <t>Entry: 10DFE204
-Type 1: 13</t>
   </si>
   <si>
     <t>Chameleon P3 16Gb FC
@@ -681,32 +657,16 @@
 00MN788</t>
   </si>
   <si>
-    <t>Entry: 10DFE731
-Type 1: 13</t>
-  </si>
-  <si>
     <t>Blacktip IVB LOM</t>
   </si>
   <si>
     <t>OCl11102R-F-L</t>
   </si>
   <si>
-    <t>Entry: 10DFE758
-Type 1: 13</t>
-  </si>
-  <si>
     <t>LPm16002B-I</t>
   </si>
   <si>
-    <t>Entry: 10DFE202
-Type 1: 13</t>
-  </si>
-  <si>
     <t>LPm16004B-I</t>
-  </si>
-  <si>
-    <t>Entry: 10DFE282
-Type 1: 13</t>
   </si>
   <si>
     <t>Vanguard P3
@@ -745,10 +705,6 @@
 00JY802</t>
   </si>
   <si>
-    <t>Entry: 10DFE815
-Type 1: 13</t>
-  </si>
-  <si>
     <t>OCm14108-U-X</t>
   </si>
   <si>
@@ -756,10 +712,6 @@
 94Y5204</t>
   </si>
   <si>
-    <t>Entry: 10DFE811
-Type 1: 13</t>
-  </si>
-  <si>
     <t>Newport LOM</t>
   </si>
   <si>
@@ -787,14 +739,6 @@
     <t>00AG592</t>
   </si>
   <si>
-    <t>Entry:  10DFE81B
-Type 1: 13</t>
-  </si>
-  <si>
-    <t>Entry:  10DFE81A
-Type 1: 13</t>
-  </si>
-  <si>
     <t>PCI\VEN_10DF&amp;DEV_0720&amp;SUBSYS_E81910DF //elx_Skyeagle_P2_N</t>
   </si>
   <si>
@@ -807,10 +751,6 @@
     <t>OCl14104-U2-L</t>
   </si>
   <si>
-    <t>Entry:  10DFE812
-Type 1: 13</t>
-  </si>
-  <si>
     <t>PCI\VEN_19A2&amp;DEV_0710&amp;SUBSYS_E75810DF //elx_Blacktip_Red_N</t>
   </si>
   <si>
@@ -856,10 +796,6 @@
     <t>PCI\VEN_10DF&amp;DEV_0724&amp;SUBSYS_E81F10DF //elx_Silver_P2_F</t>
   </si>
   <si>
-    <t>Entry: 10DFE81E
-Type 1: 13</t>
-  </si>
-  <si>
     <t>Gold P2</t>
   </si>
   <si>
@@ -888,18 +824,6 @@
   </si>
   <si>
     <t>Gold Plus P2</t>
-  </si>
-  <si>
-    <t>Entry: 10DFE81F
-Type 1: 13</t>
-  </si>
-  <si>
-    <t>Entry: 10DFE81C
-Type 1: 13</t>
-  </si>
-  <si>
-    <t>Entry: 10DFE817
-Type 1: 13</t>
   </si>
   <si>
     <t>00JY886
@@ -1016,18 +940,10 @@
     <t>LPe31000-M6-L</t>
   </si>
   <si>
-    <t>Entry: 10DFE333
-Type 1: 13</t>
-  </si>
-  <si>
     <t>Croydon G6 16Gb FC
 (2-port)</t>
   </si>
   <si>
-    <t>Entry: 10DFE332
-Type 1: 13</t>
-  </si>
-  <si>
     <t>LPe31002-M6-L</t>
   </si>
   <si>
@@ -1180,58 +1096,169 @@
     <t>Update SSDID values for Silver Plus P2, SkyBird Plus P2 2-port, and SkyBird Plus P2 4-port per Manzar.</t>
   </si>
   <si>
+    <t>PCI\VEN_10DF&amp;DEV_0720&amp;SUBSYS_E87410DF //elx_Silver_Plus_P2_N</t>
+  </si>
+  <si>
+    <t>PCI\VEN_10DF&amp;DEV_0720&amp;SUBSYS_E87210DF //elx_Skybird_Plus_P2_N</t>
+  </si>
+  <si>
+    <t>PCI\VEN_10DF&amp;DEV_0720&amp;SUBSYS_E87310DF //elx_Skybird_Plus_P2_4p_N</t>
+  </si>
+  <si>
+    <t>PCI\VEN_10DF&amp;DEV_0722&amp;SUBSYS_E87410DF //elx_Silver_Plus_P2_I</t>
+  </si>
+  <si>
+    <t>PCI\VEN_10DF&amp;DEV_0722&amp;SUBSYS_E87210DF //elx_Skybird_Plus_P2_I</t>
+  </si>
+  <si>
+    <t>PCI\VEN_10DF&amp;DEV_0722&amp;SUBSYS_E87310DF //elx_Skybird_Plus_P2_4p_I</t>
+  </si>
+  <si>
+    <t>PCI\VEN_10DF&amp;DEV_0724&amp;SUBSYS_E87410DF //elx_Silver_Plus_P2_F</t>
+  </si>
+  <si>
+    <t>PCI\VEN_10DF&amp;DEV_0724&amp;SUBSYS_E87210DF //elx_Skybird_Plus_P2_F</t>
+  </si>
+  <si>
+    <t>PCI\VEN_10DF&amp;DEV_0724&amp;SUBSYS_E87310DF //elx_Skybird_Plus_P2_4p_F</t>
+  </si>
+  <si>
+    <t>2-9</t>
+  </si>
+  <si>
+    <t>51-53</t>
+  </si>
+  <si>
+    <t>Remove RHEL7.3 inbox support per Manzar.</t>
+  </si>
+  <si>
+    <t>Remove options which are only supported on Purley machine types per Manzar.</t>
+  </si>
+  <si>
+    <t>Remove Purley machine types per Manzar.</t>
+  </si>
+  <si>
+    <t>Entry: 10DFE72A
+Type 1: 13
+Type 2: 10</t>
+  </si>
+  <si>
+    <t>Entry: 10DFE731
+Type 1: 13
+Type 2: 10</t>
+  </si>
+  <si>
+    <t>Entry: 10DFE758
+Type 1: 13
+Type 2: 10</t>
+  </si>
+  <si>
+    <t>Entry: 10DFE203
+Type 1: 13
+Type 2: 10</t>
+  </si>
+  <si>
+    <t>Entry: 10DFE204
+Type 1: 13
+Type 2: 10</t>
+  </si>
+  <si>
+    <t>Entry: 10DFE202
+Type 1: 13
+Type 2: 10</t>
+  </si>
+  <si>
+    <t>Entry: 10DFE282
+Type 1: 13
+Type 2: 10</t>
+  </si>
+  <si>
+    <t>Entry: 10DFE333
+Type 1: 13
+Type 2: 10</t>
+  </si>
+  <si>
+    <t>Entry: 10DFE332
+Type 1: 13
+Type 2: 10</t>
+  </si>
+  <si>
+    <t>Entry: 10DFE816
+Type 1: 13
+Type 2: 10</t>
+  </si>
+  <si>
+    <t>Entry: 10DFE818
+Type 1: 13
+Type 2: 10</t>
+  </si>
+  <si>
+    <t>Entry: 10DFE817
+Type 1: 13
+Type 2: 10</t>
+  </si>
+  <si>
+    <t>Entry: 10DFE81C
+Type 1: 13
+Type 2: 10</t>
+  </si>
+  <si>
+    <t>Entry: 10DFE81E
+Type 1: 13
+Type 2: 10</t>
+  </si>
+  <si>
+    <t>Entry: 10DFE810
+Type 1: 13
+Type 2: 10</t>
+  </si>
+  <si>
+    <t>Entry: 10DFE81F
+Type 1: 13
+Type 2: 10</t>
+  </si>
+  <si>
     <t>Entry: 10DFE874
-Type 1: 13</t>
+Type 1: 13
+Type 2: 10</t>
+  </si>
+  <si>
+    <t>Entry: 10DFE815
+Type 1: 13
+Type 2: 10</t>
+  </si>
+  <si>
+    <t>Entry:  10DFE81B
+Type 1: 13
+Type 2: 10</t>
   </si>
   <si>
     <t>Entry:  10DFE872
-Type 1: 13</t>
+Type 1: 13
+Type 2: 10</t>
+  </si>
+  <si>
+    <t>Entry:  10DFE81A
+Type 1: 13
+Type 2: 10</t>
   </si>
   <si>
     <t>Entry:  10DFE873
-Type 1: 13</t>
-  </si>
-  <si>
-    <t>PCI\VEN_10DF&amp;DEV_0720&amp;SUBSYS_E87410DF //elx_Silver_Plus_P2_N</t>
-  </si>
-  <si>
-    <t>PCI\VEN_10DF&amp;DEV_0720&amp;SUBSYS_E87210DF //elx_Skybird_Plus_P2_N</t>
-  </si>
-  <si>
-    <t>PCI\VEN_10DF&amp;DEV_0720&amp;SUBSYS_E87310DF //elx_Skybird_Plus_P2_4p_N</t>
-  </si>
-  <si>
-    <t>PCI\VEN_10DF&amp;DEV_0722&amp;SUBSYS_E87410DF //elx_Silver_Plus_P2_I</t>
-  </si>
-  <si>
-    <t>PCI\VEN_10DF&amp;DEV_0722&amp;SUBSYS_E87210DF //elx_Skybird_Plus_P2_I</t>
-  </si>
-  <si>
-    <t>PCI\VEN_10DF&amp;DEV_0722&amp;SUBSYS_E87310DF //elx_Skybird_Plus_P2_4p_I</t>
-  </si>
-  <si>
-    <t>PCI\VEN_10DF&amp;DEV_0724&amp;SUBSYS_E87410DF //elx_Silver_Plus_P2_F</t>
-  </si>
-  <si>
-    <t>PCI\VEN_10DF&amp;DEV_0724&amp;SUBSYS_E87210DF //elx_Skybird_Plus_P2_F</t>
-  </si>
-  <si>
-    <t>PCI\VEN_10DF&amp;DEV_0724&amp;SUBSYS_E87310DF //elx_Skybird_Plus_P2_4p_F</t>
-  </si>
-  <si>
-    <t>2-9</t>
-  </si>
-  <si>
-    <t>51-53</t>
-  </si>
-  <si>
-    <t>Remove RHEL7.3 inbox support per Manzar.</t>
-  </si>
-  <si>
-    <t>Remove options which are only supported on Purley machine types per Manzar.</t>
-  </si>
-  <si>
-    <t>Remove Purley machine types per Manzar.</t>
+Type 1: 13
+Type 2: 10</t>
+  </si>
+  <si>
+    <t>Entry: 10DFE811
+Type 1: 13
+Type 2: 10</t>
+  </si>
+  <si>
+    <t>Entry:  10DFE812
+Type 1: 13
+Type 2: 10</t>
+  </si>
+  <si>
+    <t>Add classification type '10' to all BE, Skyhawk, and Lancer adapters per Alfredo.</t>
   </si>
 </sst>
 </file>
@@ -2066,67 +2093,67 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2790,43 +2817,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="103" t="s">
-        <v>334</v>
-      </c>
-      <c r="B1" s="103"/>
+      <c r="A1" s="119" t="s">
+        <v>313</v>
+      </c>
+      <c r="B1" s="119"/>
       <c r="C1" s="86"/>
       <c r="D1" s="86"/>
     </row>
     <row r="2" spans="1:16" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="103" t="s">
-        <v>278</v>
-      </c>
-      <c r="B2" s="103"/>
+      <c r="A2" s="119" t="s">
+        <v>259</v>
+      </c>
+      <c r="B2" s="119"/>
     </row>
     <row r="4" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="B4" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="12"/>
-      <c r="D4" s="99" t="s">
-        <v>280</v>
-      </c>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
+      <c r="D4" s="118" t="s">
+        <v>261</v>
+      </c>
+      <c r="E4" s="118"/>
+      <c r="F4" s="118"/>
       <c r="G4" s="13"/>
-      <c r="H4" s="99" t="s">
+      <c r="H4" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="99"/>
-      <c r="M4" s="99"/>
+      <c r="I4" s="118"/>
+      <c r="J4" s="118"/>
+      <c r="K4" s="118"/>
+      <c r="L4" s="118"/>
+      <c r="M4" s="118"/>
       <c r="N4" s="14"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B5" s="69" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="17" t="s">
@@ -2843,7 +2870,7 @@
         <v>7</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="J5" s="17" t="s">
         <v>4</v>
@@ -2855,40 +2882,40 @@
         <v>35</v>
       </c>
       <c r="M5" s="17" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="N5" s="20"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="70" t="s">
-        <v>335</v>
+        <v>314</v>
       </c>
       <c r="C6" s="16"/>
-      <c r="D6" s="100" t="s">
+      <c r="D6" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="101"/>
-      <c r="F6" s="102"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="101"/>
       <c r="G6" s="21"/>
-      <c r="H6" s="100" t="s">
-        <v>169</v>
-      </c>
-      <c r="I6" s="101"/>
-      <c r="J6" s="101"/>
-      <c r="K6" s="101"/>
-      <c r="L6" s="101"/>
-      <c r="M6" s="102"/>
+      <c r="H6" s="99" t="s">
+        <v>163</v>
+      </c>
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="100"/>
+      <c r="L6" s="100"/>
+      <c r="M6" s="101"/>
       <c r="N6" s="22"/>
       <c r="O6" s="63"/>
       <c r="P6" s="23"/>
     </row>
-    <row r="7" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="45" x14ac:dyDescent="0.2">
       <c r="B7" s="69" t="s">
         <v>33</v>
       </c>
       <c r="C7" s="24"/>
       <c r="D7" s="25" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="E7" s="26">
         <v>5464</v>
@@ -2898,10 +2925,10 @@
       </c>
       <c r="G7" s="28"/>
       <c r="H7" s="77" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
       <c r="I7" s="75" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J7" s="76" t="s">
         <v>8</v>
@@ -2910,22 +2937,22 @@
         <v>37</v>
       </c>
       <c r="L7" s="75" t="s">
-        <v>41</v>
+        <v>354</v>
       </c>
       <c r="M7" s="66" t="s">
-        <v>302</v>
+        <v>283</v>
       </c>
       <c r="N7" s="22"/>
       <c r="O7" s="63"/>
       <c r="P7" s="30"/>
     </row>
-    <row r="8" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" ht="45" x14ac:dyDescent="0.2">
       <c r="B8" s="70" t="s">
         <v>32</v>
       </c>
       <c r="C8" s="24"/>
       <c r="D8" s="29" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="E8" s="31">
         <v>5463</v>
@@ -2935,33 +2962,33 @@
       </c>
       <c r="G8" s="33"/>
       <c r="H8" s="77" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="I8" s="39" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="J8" s="39" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="K8" s="38" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="L8" s="38" t="s">
-        <v>206</v>
+        <v>355</v>
       </c>
       <c r="M8" s="66" t="s">
-        <v>302</v>
+        <v>283</v>
       </c>
       <c r="O8" s="63"/>
       <c r="P8" s="30"/>
     </row>
-    <row r="9" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" ht="45" x14ac:dyDescent="0.2">
       <c r="B9" s="93" t="s">
-        <v>317</v>
+        <v>296</v>
       </c>
       <c r="C9" s="24"/>
       <c r="D9" s="25" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="E9" s="35">
         <v>5462</v>
@@ -2971,33 +2998,33 @@
       </c>
       <c r="G9" s="33"/>
       <c r="H9" s="87" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="I9" s="39" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="J9" s="39" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="K9" s="39" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="L9" s="38" t="s">
-        <v>209</v>
+        <v>356</v>
       </c>
       <c r="M9" s="66" t="s">
-        <v>302</v>
+        <v>283</v>
       </c>
       <c r="O9" s="63"/>
       <c r="P9" s="30"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B10" s="71" t="s">
-        <v>284</v>
+        <v>265</v>
       </c>
       <c r="C10" s="34"/>
       <c r="D10" s="15" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="E10" s="35">
         <v>6241</v>
@@ -3011,11 +3038,11 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B11" s="71" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
       <c r="C11" s="34"/>
       <c r="D11" s="25" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="E11" s="35">
         <v>5465</v>
@@ -3024,24 +3051,24 @@
         <v>5</v>
       </c>
       <c r="G11" s="37"/>
-      <c r="H11" s="107" t="s">
-        <v>321</v>
-      </c>
-      <c r="I11" s="107"/>
-      <c r="J11" s="107"/>
-      <c r="K11" s="107"/>
-      <c r="L11" s="107"/>
-      <c r="M11" s="107"/>
+      <c r="H11" s="115" t="s">
+        <v>300</v>
+      </c>
+      <c r="I11" s="115"/>
+      <c r="J11" s="115"/>
+      <c r="K11" s="115"/>
+      <c r="L11" s="115"/>
+      <c r="M11" s="115"/>
       <c r="O11" s="63"/>
       <c r="P11" s="30"/>
     </row>
-    <row r="12" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" ht="45" x14ac:dyDescent="0.2">
       <c r="B12" s="71" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="C12" s="34"/>
       <c r="D12" s="25" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="E12" s="35">
         <v>5467</v>
@@ -3050,34 +3077,34 @@
         <v>6</v>
       </c>
       <c r="G12" s="28"/>
-      <c r="H12" s="108" t="s">
-        <v>300</v>
+      <c r="H12" s="116" t="s">
+        <v>281</v>
       </c>
       <c r="I12" s="84" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="J12" s="85" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="K12" s="84" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="L12" s="84" t="s">
-        <v>149</v>
+        <v>357</v>
       </c>
       <c r="M12" s="75" t="s">
-        <v>303</v>
+        <v>284</v>
       </c>
       <c r="O12" s="63"/>
       <c r="P12" s="30"/>
     </row>
-    <row r="13" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" ht="45" x14ac:dyDescent="0.2">
       <c r="B13" s="71" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="C13" s="34"/>
       <c r="D13" s="39" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
       <c r="E13" s="35">
         <v>8753</v>
@@ -3086,32 +3113,32 @@
         <v>7</v>
       </c>
       <c r="G13" s="28"/>
-      <c r="H13" s="109"/>
+      <c r="H13" s="117"/>
       <c r="I13" s="75" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="J13" s="76" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="K13" s="75" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="L13" s="75" t="s">
-        <v>151</v>
+        <v>358</v>
       </c>
       <c r="M13" s="75" t="s">
-        <v>303</v>
+        <v>284</v>
       </c>
       <c r="O13" s="63"/>
       <c r="P13" s="30"/>
     </row>
-    <row r="14" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" ht="45" x14ac:dyDescent="0.2">
       <c r="B14" s="71" t="s">
-        <v>331</v>
+        <v>310</v>
       </c>
       <c r="C14" s="40"/>
       <c r="D14" s="29" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="E14" s="31">
         <v>8869</v>
@@ -3120,33 +3147,33 @@
         <v>8</v>
       </c>
       <c r="H14" s="90" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
       <c r="I14" s="38" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="J14" s="76" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="K14" s="38" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="L14" s="38" t="s">
-        <v>211</v>
+        <v>359</v>
       </c>
       <c r="M14" s="75" t="s">
-        <v>303</v>
+        <v>284</v>
       </c>
       <c r="O14" s="63"/>
       <c r="P14" s="30"/>
     </row>
-    <row r="15" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" ht="45" x14ac:dyDescent="0.2">
       <c r="B15" s="71" t="s">
-        <v>333</v>
+        <v>312</v>
       </c>
       <c r="C15" s="40"/>
       <c r="D15" s="25" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
       <c r="E15" s="35">
         <v>8871</v>
@@ -3155,36 +3182,36 @@
         <v>9</v>
       </c>
       <c r="H15" s="77" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="I15" s="38" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="J15" s="39" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="K15" s="38" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="L15" s="38" t="s">
-        <v>213</v>
+        <v>360</v>
       </c>
       <c r="M15" s="75" t="s">
-        <v>303</v>
+        <v>284</v>
       </c>
       <c r="O15" s="63"/>
       <c r="P15" s="30"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B16" s="71" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="C16" s="40"/>
       <c r="D16" s="25" t="s">
-        <v>299</v>
+        <v>280</v>
       </c>
       <c r="E16" s="35" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="F16" s="27">
         <v>10</v>
@@ -3200,99 +3227,99 @@
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B17" s="72" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="C17" s="44"/>
       <c r="D17"/>
       <c r="E17"/>
       <c r="F17"/>
       <c r="G17" s="63"/>
-      <c r="H17" s="100" t="s">
-        <v>320</v>
-      </c>
-      <c r="I17" s="101"/>
-      <c r="J17" s="101"/>
-      <c r="K17" s="101"/>
-      <c r="L17" s="101"/>
-      <c r="M17" s="102"/>
+      <c r="H17" s="99" t="s">
+        <v>299</v>
+      </c>
+      <c r="I17" s="100"/>
+      <c r="J17" s="100"/>
+      <c r="K17" s="100"/>
+      <c r="L17" s="100"/>
+      <c r="M17" s="101"/>
       <c r="O17" s="63"/>
       <c r="P17" s="30"/>
     </row>
-    <row r="18" spans="2:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:16" ht="45" x14ac:dyDescent="0.2">
       <c r="B18" s="71" t="s">
+        <v>268</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="112" t="s">
+        <v>196</v>
+      </c>
+      <c r="E18" s="113"/>
+      <c r="F18" s="114"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="116" t="s">
+        <v>281</v>
+      </c>
+      <c r="I18" s="75" t="s">
         <v>287</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="104" t="s">
-        <v>202</v>
-      </c>
-      <c r="E18" s="105"/>
-      <c r="F18" s="106"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="108" t="s">
-        <v>300</v>
-      </c>
-      <c r="I18" s="75" t="s">
-        <v>306</v>
-      </c>
       <c r="J18" s="85" t="s">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="K18" s="84" t="s">
-        <v>307</v>
+        <v>288</v>
       </c>
       <c r="L18" s="84" t="s">
-        <v>309</v>
+        <v>361</v>
       </c>
       <c r="M18" s="75" t="s">
-        <v>314</v>
+        <v>293</v>
       </c>
       <c r="O18" s="63"/>
       <c r="P18" s="30"/>
     </row>
-    <row r="19" spans="2:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:16" ht="45" x14ac:dyDescent="0.2">
       <c r="B19" s="72" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="76" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="E19" s="65" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="F19" s="42">
         <v>50</v>
       </c>
       <c r="G19" s="63"/>
-      <c r="H19" s="109"/>
+      <c r="H19" s="117"/>
       <c r="I19" s="75" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="J19" s="76" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
       <c r="K19" s="75" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="L19" s="75" t="s">
-        <v>311</v>
+        <v>362</v>
       </c>
       <c r="M19" s="75" t="s">
-        <v>314</v>
+        <v>293</v>
       </c>
       <c r="O19" s="63"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B20" s="72" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="76" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="E20" s="41" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="F20" s="42">
         <v>51</v>
@@ -3302,119 +3329,119 @@
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B21" s="72" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="76" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="E21" s="41" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="F21" s="66">
         <v>52</v>
       </c>
-      <c r="H21" s="100" t="s">
-        <v>170</v>
-      </c>
-      <c r="I21" s="101"/>
-      <c r="J21" s="101"/>
-      <c r="K21" s="101"/>
-      <c r="L21" s="101"/>
-      <c r="M21" s="102"/>
+      <c r="H21" s="99" t="s">
+        <v>164</v>
+      </c>
+      <c r="I21" s="100"/>
+      <c r="J21" s="100"/>
+      <c r="K21" s="100"/>
+      <c r="L21" s="100"/>
+      <c r="M21" s="101"/>
       <c r="O21" s="63"/>
     </row>
     <row r="22" spans="2:16" ht="45" x14ac:dyDescent="0.2">
       <c r="B22" s="72" t="s">
-        <v>293</v>
+        <v>274</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="58" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="E22" s="41" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F22" s="67">
         <v>53</v>
       </c>
-      <c r="H22" s="118" t="s">
-        <v>300</v>
+      <c r="H22" s="102" t="s">
+        <v>281</v>
       </c>
       <c r="I22" s="75" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="J22" s="76" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="K22" s="75" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="L22" s="75" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="M22" s="66" t="s">
-        <v>302</v>
+        <v>283</v>
       </c>
       <c r="O22" s="63"/>
     </row>
     <row r="23" spans="2:16" ht="45" x14ac:dyDescent="0.2">
       <c r="B23" s="71" t="s">
-        <v>290</v>
+        <v>271</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23"/>
       <c r="E23"/>
       <c r="F23"/>
-      <c r="H23" s="119"/>
+      <c r="H23" s="103"/>
       <c r="I23" s="75" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="J23" s="76" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="K23" s="75" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="L23" s="75" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="M23" s="66" t="s">
-        <v>302</v>
+        <v>283</v>
       </c>
       <c r="O23" s="63"/>
     </row>
     <row r="24" spans="2:16" ht="45" x14ac:dyDescent="0.2">
       <c r="B24" s="71" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24"/>
       <c r="E24"/>
       <c r="F24"/>
       <c r="H24" s="83" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="I24" s="39" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="J24" s="39" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="K24" s="38" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="L24" s="38" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="M24" s="66" t="s">
-        <v>302</v>
+        <v>283</v>
       </c>
       <c r="O24" s="63"/>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B25" s="71" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
       <c r="D25" s="43"/>
       <c r="E25" s="7"/>
@@ -3423,353 +3450,353 @@
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B26" s="72" t="s">
-        <v>345</v>
-      </c>
-      <c r="H26" s="100" t="s">
-        <v>171</v>
-      </c>
-      <c r="I26" s="101"/>
-      <c r="J26" s="101"/>
-      <c r="K26" s="101"/>
-      <c r="L26" s="101"/>
-      <c r="M26" s="102"/>
+        <v>324</v>
+      </c>
+      <c r="H26" s="99" t="s">
+        <v>165</v>
+      </c>
+      <c r="I26" s="100"/>
+      <c r="J26" s="100"/>
+      <c r="K26" s="100"/>
+      <c r="L26" s="100"/>
+      <c r="M26" s="101"/>
       <c r="O26" s="63"/>
     </row>
-    <row r="27" spans="2:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:16" ht="45" x14ac:dyDescent="0.2">
       <c r="B27" s="72" t="s">
-        <v>346</v>
-      </c>
-      <c r="H27" s="115" t="s">
-        <v>248</v>
+        <v>325</v>
+      </c>
+      <c r="H27" s="104" t="s">
+        <v>233</v>
       </c>
       <c r="I27" s="75" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="J27" s="76" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K27" s="75" t="s">
         <v>39</v>
       </c>
       <c r="L27" s="75" t="s">
-        <v>42</v>
+        <v>363</v>
       </c>
       <c r="M27" s="66" t="s">
-        <v>302</v>
+        <v>283</v>
       </c>
       <c r="O27" s="63"/>
     </row>
-    <row r="28" spans="2:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:16" ht="45" x14ac:dyDescent="0.2">
       <c r="B28" s="72" t="s">
-        <v>295</v>
-      </c>
-      <c r="H28" s="116"/>
+        <v>276</v>
+      </c>
+      <c r="H28" s="105"/>
       <c r="I28" s="75" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="J28" s="76" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K28" s="75" t="s">
         <v>38</v>
       </c>
       <c r="L28" s="75" t="s">
-        <v>43</v>
+        <v>364</v>
       </c>
       <c r="M28" s="66" t="s">
-        <v>302</v>
+        <v>283</v>
       </c>
       <c r="O28" s="63"/>
     </row>
-    <row r="29" spans="2:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:16" ht="45" x14ac:dyDescent="0.2">
       <c r="B29" s="72" t="s">
-        <v>296</v>
-      </c>
-      <c r="H29" s="117"/>
+        <v>277</v>
+      </c>
+      <c r="H29" s="106"/>
       <c r="I29" s="76" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J29" s="76" t="s">
         <v>40</v>
       </c>
       <c r="K29" s="75" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="L29" s="75" t="s">
-        <v>272</v>
+        <v>365</v>
       </c>
       <c r="M29" s="66" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="30" spans="2:16" s="60" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" s="60" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="B30" s="72" t="s">
-        <v>358</v>
-      </c>
-      <c r="H30" s="113" t="s">
-        <v>300</v>
+        <v>337</v>
+      </c>
+      <c r="H30" s="107" t="s">
+        <v>281</v>
       </c>
       <c r="I30" s="76" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="J30" s="76" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K30" s="75" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="L30" s="75" t="s">
-        <v>271</v>
+        <v>366</v>
       </c>
       <c r="M30" s="75" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="31" spans="2:16" s="60" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" s="60" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="B31" s="72" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="D31"/>
       <c r="E31"/>
       <c r="F31"/>
-      <c r="H31" s="114"/>
+      <c r="H31" s="108"/>
       <c r="I31" s="76" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="J31" s="76" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K31" s="75" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="L31" s="75" t="s">
-        <v>259</v>
+        <v>367</v>
       </c>
       <c r="M31" s="75" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
     </row>
     <row r="32" spans="2:16" ht="60" x14ac:dyDescent="0.2">
       <c r="B32" s="72" t="s">
-        <v>350</v>
+        <v>329</v>
       </c>
       <c r="D32"/>
       <c r="E32"/>
       <c r="F32"/>
       <c r="H32" s="88" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="I32" s="76" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="J32" s="76" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K32" s="75" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
       <c r="L32" s="75" t="s">
-        <v>146</v>
+        <v>368</v>
       </c>
       <c r="M32" s="66" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" ht="30" x14ac:dyDescent="0.2">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" ht="45" x14ac:dyDescent="0.2">
       <c r="B33" s="60"/>
-      <c r="H33" s="113" t="s">
-        <v>373</v>
+      <c r="H33" s="107" t="s">
+        <v>349</v>
       </c>
       <c r="I33" s="76" t="s">
+        <v>240</v>
+      </c>
+      <c r="J33" s="76" t="s">
+        <v>142</v>
+      </c>
+      <c r="K33" s="75" t="s">
         <v>255</v>
       </c>
-      <c r="J33" s="76" t="s">
-        <v>145</v>
-      </c>
-      <c r="K33" s="75" t="s">
-        <v>274</v>
-      </c>
       <c r="L33" s="75" t="s">
-        <v>270</v>
+        <v>369</v>
       </c>
       <c r="M33" s="75" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="N33" s="23"/>
     </row>
-    <row r="34" spans="2:14" ht="30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" ht="45" x14ac:dyDescent="0.2">
       <c r="D34" s="43"/>
       <c r="E34" s="7"/>
       <c r="F34" s="45"/>
-      <c r="H34" s="114"/>
+      <c r="H34" s="108"/>
       <c r="I34" s="76" t="s">
-        <v>328</v>
+        <v>307</v>
       </c>
       <c r="J34" s="76" t="s">
-        <v>322</v>
+        <v>301</v>
       </c>
       <c r="K34" s="75" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="L34" s="75" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="M34" s="75" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="35" spans="2:14" ht="32" x14ac:dyDescent="0.2">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" ht="45" x14ac:dyDescent="0.2">
       <c r="B35" s="92" t="s">
-        <v>338</v>
+        <v>317</v>
       </c>
       <c r="D35" s="43"/>
       <c r="E35" s="7"/>
       <c r="F35" s="45"/>
       <c r="H35" s="68" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="I35" s="39" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="J35" s="39" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="K35" s="38" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="L35" s="38" t="s">
-        <v>224</v>
+        <v>371</v>
       </c>
       <c r="M35" s="66" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="36" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" ht="45" x14ac:dyDescent="0.2">
       <c r="B36" s="94" t="s">
-        <v>336</v>
+        <v>315</v>
       </c>
       <c r="D36" s="46"/>
       <c r="E36" s="6"/>
       <c r="F36" s="47"/>
-      <c r="H36" s="110" t="s">
-        <v>374</v>
+      <c r="H36" s="109" t="s">
+        <v>350</v>
       </c>
       <c r="I36" s="91" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="J36" s="74" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K36" s="74" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="L36" s="78" t="s">
-        <v>237</v>
+        <v>372</v>
       </c>
       <c r="M36" s="75" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" ht="30" x14ac:dyDescent="0.2">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" ht="45" x14ac:dyDescent="0.2">
       <c r="B37" s="94" t="s">
-        <v>337</v>
+        <v>316</v>
       </c>
       <c r="D37" s="46"/>
       <c r="E37" s="7"/>
       <c r="F37" s="47"/>
-      <c r="H37" s="111"/>
+      <c r="H37" s="110"/>
       <c r="I37" s="91" t="s">
-        <v>329</v>
+        <v>308</v>
       </c>
       <c r="J37" s="74" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="K37" s="74" t="s">
-        <v>323</v>
+        <v>302</v>
       </c>
       <c r="L37" s="97" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="M37" s="75" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="38" spans="2:14" ht="30" x14ac:dyDescent="0.2">
-      <c r="H38" s="111"/>
+        <v>285</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" ht="45" x14ac:dyDescent="0.2">
+      <c r="H38" s="110"/>
       <c r="I38" s="91" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="J38" s="74" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="K38" s="74" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="L38" s="78" t="s">
-        <v>238</v>
+        <v>374</v>
       </c>
       <c r="M38" s="75" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" ht="30" x14ac:dyDescent="0.2">
-      <c r="H39" s="112"/>
+        <v>285</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" ht="45" x14ac:dyDescent="0.2">
+      <c r="H39" s="111"/>
       <c r="I39" s="91" t="s">
-        <v>330</v>
+        <v>309</v>
       </c>
       <c r="J39" s="74" t="s">
-        <v>326</v>
+        <v>305</v>
       </c>
       <c r="K39" s="74" t="s">
-        <v>324</v>
+        <v>303</v>
       </c>
       <c r="L39" s="97" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="M39" s="75" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="40" spans="2:14" ht="30" x14ac:dyDescent="0.2">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" ht="45" x14ac:dyDescent="0.2">
       <c r="B40"/>
       <c r="H40" s="68" t="s">
+        <v>264</v>
+      </c>
+      <c r="I40" s="39" t="s">
+        <v>218</v>
+      </c>
+      <c r="J40" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="K40" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="L40" s="38" t="s">
+        <v>376</v>
+      </c>
+      <c r="M40" s="66" t="s">
         <v>283</v>
       </c>
-      <c r="I40" s="39" t="s">
-        <v>230</v>
-      </c>
-      <c r="J40" s="39" t="s">
-        <v>225</v>
-      </c>
-      <c r="K40" s="38" t="s">
-        <v>226</v>
-      </c>
-      <c r="L40" s="38" t="s">
-        <v>227</v>
-      </c>
-      <c r="M40" s="66" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="41" spans="2:14" ht="30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="2:14" ht="45" x14ac:dyDescent="0.2">
       <c r="B41"/>
       <c r="H41" s="68">
         <v>53</v>
       </c>
       <c r="I41" s="39" t="s">
+        <v>216</v>
+      </c>
+      <c r="J41" s="39" t="s">
         <v>228</v>
       </c>
-      <c r="J41" s="39" t="s">
-        <v>242</v>
-      </c>
       <c r="K41" s="75" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="L41" s="79" t="s">
-        <v>243</v>
+        <v>377</v>
       </c>
       <c r="M41" s="66" t="s">
-        <v>302</v>
+        <v>283</v>
       </c>
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.2">
@@ -3844,11 +3871,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="H21:M21"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="H26:M26"/>
-    <mergeCell ref="H27:H29"/>
-    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="H6:M6"/>
     <mergeCell ref="H33:H34"/>
     <mergeCell ref="H36:H39"/>
     <mergeCell ref="D18:F18"/>
@@ -3856,12 +3884,11 @@
     <mergeCell ref="H12:H13"/>
     <mergeCell ref="H17:M17"/>
     <mergeCell ref="H18:H19"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="H4:M4"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="H21:M21"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="H26:M26"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="H30:H31"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3874,7 +3901,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3886,10 +3913,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="95" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="59" customFormat="1" x14ac:dyDescent="0.2">
@@ -3897,126 +3924,128 @@
         <v>42563</v>
       </c>
       <c r="B2" s="96" t="s">
-        <v>377</v>
+        <v>353</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="59" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="62"/>
       <c r="B3" s="96" t="s">
-        <v>376</v>
+        <v>352</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="59" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="62"/>
       <c r="B4" s="96" t="s">
-        <v>375</v>
+        <v>351</v>
       </c>
     </row>
     <row r="5" spans="1:2" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="120"/>
-      <c r="B5" s="120"/>
+      <c r="A5" s="62"/>
+      <c r="B5" s="96" t="s">
+        <v>378</v>
+      </c>
     </row>
     <row r="6" spans="1:2" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="62">
+      <c r="A6" s="120"/>
+      <c r="B6" s="120"/>
+    </row>
+    <row r="7" spans="1:2" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="62">
         <v>42527</v>
       </c>
-      <c r="B6" s="96" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="120"/>
-      <c r="B7" s="120"/>
+      <c r="B7" s="96" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="8" spans="1:2" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="62">
+      <c r="A8" s="120"/>
+      <c r="B8" s="120"/>
+    </row>
+    <row r="9" spans="1:2" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="62">
         <v>42522</v>
       </c>
-      <c r="B8" s="96" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="120"/>
-      <c r="B9" s="120"/>
+      <c r="B9" s="96" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="10" spans="1:2" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="62">
+      <c r="A10" s="120"/>
+      <c r="B10" s="120"/>
+    </row>
+    <row r="11" spans="1:2" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="62">
         <v>42510</v>
       </c>
-      <c r="B10" s="89" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="62"/>
       <c r="B11" s="89" t="s">
-        <v>353</v>
+        <v>333</v>
       </c>
     </row>
     <row r="12" spans="1:2" s="59" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="62"/>
       <c r="B12" s="89" t="s">
-        <v>352</v>
+        <v>332</v>
       </c>
     </row>
     <row r="13" spans="1:2" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="120"/>
-      <c r="B13" s="120"/>
+      <c r="A13" s="62"/>
+      <c r="B13" s="89" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="14" spans="1:2" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="62">
+      <c r="A14" s="120"/>
+      <c r="B14" s="120"/>
+    </row>
+    <row r="15" spans="1:2" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="62">
         <v>42509</v>
       </c>
-      <c r="B14" s="96" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="120"/>
-      <c r="B15" s="120"/>
+      <c r="B15" s="96" t="s">
+        <v>330</v>
+      </c>
     </row>
     <row r="16" spans="1:2" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="62">
+      <c r="A16" s="120"/>
+      <c r="B16" s="120"/>
+    </row>
+    <row r="17" spans="1:2" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="62">
         <v>42508</v>
       </c>
-      <c r="B16" s="89" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="120"/>
-      <c r="B17" s="120"/>
+      <c r="B17" s="89" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="18" spans="1:2" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="62">
+      <c r="A18" s="120"/>
+      <c r="B18" s="120"/>
+    </row>
+    <row r="19" spans="1:2" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="62">
         <v>42489</v>
       </c>
-      <c r="B18" s="89" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="120"/>
-      <c r="B19" s="120"/>
+      <c r="B19" s="89" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="20" spans="1:2" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="62">
+      <c r="A20" s="120"/>
+      <c r="B20" s="120"/>
+    </row>
+    <row r="21" spans="1:2" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="62">
         <v>42450</v>
       </c>
-      <c r="B20" s="89" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" s="61" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="3"/>
-      <c r="B21"/>
-    </row>
-    <row r="22" spans="1:2" s="64" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="89" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" s="61" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22"/>
     </row>
-    <row r="23" spans="1:2" s="61" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" s="64" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23"/>
     </row>
@@ -4048,35 +4077,39 @@
       <c r="A30" s="3"/>
       <c r="B30"/>
     </row>
-    <row r="31" spans="1:2" s="64" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" s="61" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31"/>
     </row>
-    <row r="32" spans="1:2" s="63" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" s="64" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32"/>
     </row>
-    <row r="33" spans="1:2" s="64" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" s="63" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33"/>
     </row>
-    <row r="34" spans="1:2" s="61" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" s="64" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34"/>
     </row>
-    <row r="35" spans="1:2" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" s="61" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35"/>
     </row>
+    <row r="36" spans="1:2" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="3"/>
+      <c r="B36"/>
+    </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A10:B10"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4112,17 +4145,17 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
@@ -4152,22 +4185,22 @@
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
@@ -4177,22 +4210,22 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
@@ -4202,22 +4235,22 @@
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
@@ -4227,117 +4260,117 @@
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" s="80" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
@@ -4347,97 +4380,97 @@
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" s="81" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
@@ -4447,97 +4480,97 @@
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" s="82" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
@@ -4567,22 +4600,22 @@
     </row>
     <row r="103" spans="1:1" s="59" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="82" t="s">
-        <v>315</v>
+        <v>294</v>
       </c>
     </row>
     <row r="104" spans="1:1" s="59" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="82" t="s">
-        <v>316</v>
+        <v>295</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" s="82" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
     </row>
     <row r="106" spans="1:1" s="59" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="82" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
@@ -4592,32 +4625,32 @@
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" s="82" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
     </row>
     <row r="111" spans="1:1" s="59" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="98" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" s="73" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
@@ -4627,57 +4660,57 @@
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" s="73" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
     </row>
     <row r="118" spans="1:1" s="59" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="98" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" s="73" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
     </row>
     <row r="120" spans="1:1" s="59" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="98" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" s="82" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" s="82" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
     </row>
     <row r="126" spans="1:1" s="59" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A126" s="82" t="s">
-        <v>339</v>
+        <v>318</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
@@ -4687,32 +4720,32 @@
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" s="82" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
     </row>
     <row r="131" spans="1:1" s="59" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A131" s="98" t="s">
-        <v>367</v>
+        <v>343</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" s="73" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
@@ -4722,52 +4755,52 @@
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" s="73" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="138" spans="1:1" s="59" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A138" s="98" t="s">
-        <v>368</v>
+        <v>344</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" s="73" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
     </row>
     <row r="140" spans="1:1" s="59" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" s="98" t="s">
-        <v>369</v>
+        <v>345</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" s="82" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" s="82" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
@@ -4777,32 +4810,32 @@
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" s="82" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
     </row>
     <row r="150" spans="1:1" s="59" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A150" s="98" t="s">
-        <v>370</v>
+        <v>346</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" s="73" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.2">
@@ -4812,52 +4845,52 @@
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" s="73" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
     </row>
     <row r="157" spans="1:1" s="59" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A157" s="98" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" s="73" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
     </row>
     <row r="159" spans="1:1" s="59" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A159" s="98" t="s">
-        <v>372</v>
+        <v>348</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" s="82" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" s="82" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -4882,79 +4915,79 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B2" s="1">
         <v>203</v>
       </c>
       <c r="C2" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B3" s="1">
         <v>208</v>
       </c>
       <c r="C3" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B4" s="1">
         <v>209</v>
       </c>
       <c r="C4" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B5" s="1">
         <v>207</v>
       </c>
       <c r="C5" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="59" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B6" s="1">
         <v>210</v>
       </c>
       <c r="C6" s="59" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B7" s="1">
         <v>109</v>
       </c>
       <c r="C7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -4965,7 +4998,7 @@
         <v>112</v>
       </c>
       <c r="C8" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -4976,62 +5009,62 @@
         <v>113</v>
       </c>
       <c r="C9" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="59" t="s">
-        <v>317</v>
+        <v>296</v>
       </c>
       <c r="B10" s="1">
         <v>114</v>
       </c>
       <c r="C10" s="59" t="s">
-        <v>348</v>
+        <v>327</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B11" s="1">
         <v>311</v>
       </c>
       <c r="C11" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
       <c r="B12" s="1">
         <v>312</v>
       </c>
       <c r="C12" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="59" t="s">
-        <v>319</v>
+        <v>298</v>
       </c>
       <c r="B13" s="1">
         <v>313</v>
       </c>
       <c r="C13" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
       <c r="B14" s="1">
         <v>314</v>
       </c>
       <c r="C14" t="s">
-        <v>347</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>
